--- a/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,108 +40,102 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -151,99 +145,96 @@
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>share</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>share</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -611,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8116438356164384</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -730,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7333333333333333</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -880,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,16 +889,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -948,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -998,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>0.8055555555555556</v>
@@ -1080,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6333333333333333</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6101694915254238</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5465116279069767</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C13">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>234</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5098039215686274</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4973544973544973</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4765100671140939</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.475</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4266666666666667</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.76875</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3818181818181818</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3454545454545455</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2555555555555555</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.717948717948718</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.25</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2467532467532468</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>278</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,37 +1768,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1662198391420912</v>
+        <v>0.01094736842105263</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>311</v>
+        <v>2349</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,37 +1818,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009278785322648671</v>
+        <v>0.009990331936835321</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="F26">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2349</v>
+        <v>3072</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,19 +1868,19 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009122502172024326</v>
+        <v>0.008260869565217391</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>28</v>
       </c>
       <c r="E27">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="F27">
-        <v>0.75</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -1901,16 +1889,16 @@
         <v>2281</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.6441176470588236</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,37 +1918,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.008878504672897197</v>
+        <v>0.005103224309904894</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E28">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="F28">
-        <v>0.86</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2121</v>
+        <v>4289</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.5864406779661017</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,28 +1968,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00837898807605543</v>
+        <v>0.004625905068382945</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
       <c r="F29">
-        <v>0.87</v>
+        <v>0.49</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>3077</v>
+        <v>4949</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K29">
         <v>0.5851063829787234</v>
@@ -2030,137 +2018,89 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006031363088057901</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="F30">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>4944</v>
+        <v>5126</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L30">
+        <v>38</v>
+      </c>
+      <c r="M30">
+        <v>38</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.576271186440678</v>
+      </c>
+      <c r="L31">
+        <v>170</v>
+      </c>
+      <c r="M31">
+        <v>170</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K30">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L30">
-        <v>138</v>
-      </c>
-      <c r="M30">
-        <v>138</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.00510677808727948</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>42</v>
-      </c>
-      <c r="E31">
-        <v>0.48</v>
-      </c>
-      <c r="F31">
-        <v>0.52</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>4286</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.005056398288603656</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>0.47</v>
-      </c>
-      <c r="F32">
-        <v>0.53</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5116</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.5692307692307692</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2172,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.54</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2198,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2224,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.4509803921568628</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2250,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.449438202247191</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2276,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.4222222222222222</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2302,12 +2242,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K38">
         <v>0.3287671232876712</v>
@@ -2333,16 +2273,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.3125</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2354,189 +2294,85 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.3076923076923077</v>
+        <v>0.02251876563803169</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>54</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K41">
-        <v>0.02168473728106756</v>
+        <v>0.008258258258258258</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1173</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="K42">
-        <v>0.008636875704093128</v>
+        <v>0.004826060727930827</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N42">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="O42">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43">
-        <v>0.00794646591384358</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>22</v>
-      </c>
-      <c r="N43">
-        <v>0.86</v>
-      </c>
-      <c r="O43">
-        <v>0.14</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44">
-        <v>0.004644681839294009</v>
-      </c>
-      <c r="L44">
-        <v>20</v>
-      </c>
-      <c r="M44">
-        <v>42</v>
-      </c>
-      <c r="N44">
-        <v>0.48</v>
-      </c>
-      <c r="O44">
-        <v>0.52</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45">
-        <v>0.004475578906402024</v>
-      </c>
-      <c r="L45">
-        <v>23</v>
-      </c>
-      <c r="M45">
-        <v>49</v>
-      </c>
-      <c r="N45">
-        <v>0.47</v>
-      </c>
-      <c r="O45">
-        <v>0.53</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>5116</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46">
-        <v>0.004430124848973017</v>
-      </c>
-      <c r="L46">
-        <v>22</v>
-      </c>
-      <c r="M46">
-        <v>52</v>
-      </c>
-      <c r="N46">
-        <v>0.42</v>
-      </c>
-      <c r="O46">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>4944</v>
+        <v>4949</v>
       </c>
     </row>
   </sheetData>
